--- a/졸업작품-기사첫문구수집-김주봉.xlsx
+++ b/졸업작품-기사첫문구수집-김주봉.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29910" windowHeight="15450"/>
+    <workbookView windowWidth="20385" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>클래스 분류</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>넥센은 30일 광주-기아 챔피언스필드에서 열린 2015 타이어뱅크 KBO리그 KIA 타이거즈와의 시즌 16차전에서 깔끔한 계투책과 효율적인 공격집중도를 과시하며 7-2로 승리를 거두었다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A팀'이 'B팀'을 상대로 승리하였다. 승리의 요인은 '타자'가 '몇'이닝에 히트를 한것이다.  </t>
   </si>
   <si>
     <t>2. 접전끝에 승리 하였다.</t>
@@ -344,10 +341,93 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,53 +439,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,52 +455,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,67 +525,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,67 +657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,6 +725,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -739,9 +760,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,77 +792,42 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,40 +836,40 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -881,67 +878,67 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,9 +977,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="13" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="45" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1333,7 +1327,7 @@
   <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -1529,54 +1523,51 @@
     <row r="31" spans="1:1">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:1">
       <c r="A32" s="3"/>
-      <c r="B32" s="11" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4"/>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4"/>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -1587,88 +1578,88 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5"/>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5"/>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5"/>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5"/>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5"/>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5"/>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5"/>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5"/>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5"/>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5"/>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5"/>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5"/>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5"/>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -1679,58 +1670,58 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
         <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="6"/>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6"/>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="6"/>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6"/>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6"/>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6"/>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6"/>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6"/>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -1739,25 +1730,25 @@
     <row r="68" spans="1:2">
       <c r="A68" s="6"/>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="6"/>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="6"/>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="6"/>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -1768,46 +1759,46 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
         <v>70</v>
-      </c>
-      <c r="B74" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="7"/>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="7"/>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="7"/>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="7"/>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="7"/>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="7"/>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -1818,40 +1809,40 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
         <v>78</v>
-      </c>
-      <c r="B83" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="8"/>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="8"/>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="8"/>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="8"/>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="8"/>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -1862,40 +1853,40 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" t="s">
         <v>85</v>
-      </c>
-      <c r="B91" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="9"/>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="9"/>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="9"/>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="9"/>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" ht="13.5" spans="1:2">
       <c r="A96" s="10"/>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
